--- a/config_Release/cpl_ljyjcfk_config.xlsx
+++ b/config_Release/cpl_ljyjcfk_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,14 +16,14 @@
     <sheet name="helpinfo|帮助信息" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'base|基础'!$G$1:$G$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'base|基础'!$G$1:$G$21</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="75">
   <si>
     <t>id|</t>
   </si>
@@ -318,6 +318,18 @@
   </si>
   <si>
     <t>15000000,18000,20000</t>
+  </si>
+  <si>
+    <t>小游戏累计赢金30万</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -752,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -812,19 +824,19 @@
         <v>1000052</v>
       </c>
       <c r="C2" s="7">
-        <v>1000000</v>
+        <v>300000</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="E2" s="6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>52</v>
@@ -844,24 +856,24 @@
         <v>1000052</v>
       </c>
       <c r="C3" s="7">
-        <v>5000000</v>
+        <v>1000000</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E3" s="6">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="4" t="s">
         <v>28</v>
       </c>
       <c r="J3" s="10" t="s">
@@ -876,28 +888,28 @@
         <v>1000052</v>
       </c>
       <c r="C4" s="7">
-        <v>10000000</v>
+        <v>5000000</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>52</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -908,19 +920,19 @@
         <v>1000052</v>
       </c>
       <c r="C5" s="7">
-        <v>20000000</v>
+        <v>10000000</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>52</v>
@@ -929,7 +941,7 @@
         <v>29</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -940,28 +952,28 @@
         <v>1000052</v>
       </c>
       <c r="C6" s="7">
-        <v>50000000</v>
+        <v>20000000</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="6">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>52</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -972,28 +984,28 @@
         <v>1000052</v>
       </c>
       <c r="C7" s="7">
-        <v>100000000</v>
+        <v>50000000</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="6">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>52</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1004,28 +1016,28 @@
         <v>1000052</v>
       </c>
       <c r="C8" s="7">
-        <v>500000000</v>
+        <v>100000000</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>52</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1036,28 +1048,28 @@
         <v>1000052</v>
       </c>
       <c r="C9" s="7">
-        <v>1000000000</v>
+        <v>500000000</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="6">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>52</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1068,63 +1080,63 @@
         <v>1000052</v>
       </c>
       <c r="C10" s="7">
-        <v>2000000000</v>
+        <v>1000000000</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="6">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>52</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J10" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
-        <v>1000057</v>
+      <c r="B11" s="8">
+        <v>1000052</v>
       </c>
       <c r="C11" s="7">
-        <v>1000000</v>
+        <v>2000000000</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E11" s="6">
-        <v>10</v>
+        <v>20000</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>28</v>
+        <v>52</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1132,24 +1144,24 @@
         <v>1000057</v>
       </c>
       <c r="C12" s="7">
-        <v>5000000</v>
+        <v>1000000</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E12" s="6">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="4" t="s">
         <v>28</v>
       </c>
       <c r="J12" s="10" t="s">
@@ -1164,25 +1176,25 @@
         <v>1000057</v>
       </c>
       <c r="C13" s="7">
-        <v>10000000</v>
+        <v>5000000</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>53</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J13" s="10" t="s">
         <v>40</v>
@@ -1196,19 +1208,19 @@
         <v>1000057</v>
       </c>
       <c r="C14" s="7">
-        <v>20000000</v>
+        <v>10000000</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" s="6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>53</v>
@@ -1228,25 +1240,25 @@
         <v>1000057</v>
       </c>
       <c r="C15" s="7">
-        <v>50000000</v>
+        <v>20000000</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15" s="6">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>53</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J15" s="10" t="s">
         <v>40</v>
@@ -1260,19 +1272,19 @@
         <v>1000057</v>
       </c>
       <c r="C16" s="7">
-        <v>100000000</v>
+        <v>50000000</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" s="6">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>53</v>
@@ -1292,25 +1304,25 @@
         <v>1000057</v>
       </c>
       <c r="C17" s="7">
-        <v>500000000</v>
+        <v>100000000</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>53</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J17" s="10" t="s">
         <v>40</v>
@@ -1324,25 +1336,25 @@
         <v>1000057</v>
       </c>
       <c r="C18" s="7">
-        <v>1000000000</v>
+        <v>500000000</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" s="6">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>53</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J18" s="10" t="s">
         <v>40</v>
@@ -1356,27 +1368,59 @@
         <v>1000057</v>
       </c>
       <c r="C19" s="7">
-        <v>2000000000</v>
+        <v>1000000000</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" s="6">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>53</v>
       </c>
       <c r="I19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1000057</v>
+      </c>
+      <c r="C20" s="7">
+        <v>2000000000</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="6">
+        <v>20000</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J20" s="10" t="s">
         <v>40</v>
       </c>
     </row>

--- a/config_Release/cpl_ljyjcfk_config.xlsx
+++ b/config_Release/cpl_ljyjcfk_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'base|基础'!$G$1:$G$21</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="74">
   <si>
     <t>id|</t>
   </si>
@@ -77,10 +77,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>5,8,10</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>30,40,50</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -266,9 +262,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>5,8,10</t>
-  </si>
-  <si>
     <t>30,40,20</t>
   </si>
   <si>
@@ -329,6 +322,10 @@
   </si>
   <si>
     <t>1,2,3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,5,10</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -767,7 +764,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -804,16 +801,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="I1" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -827,25 +824,25 @@
         <v>300000</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E2" s="6">
         <v>3</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -865,19 +862,19 @@
         <v>10</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>54</v>
+        <v>73</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -891,25 +888,25 @@
         <v>5000000</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="6">
         <v>50</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -923,25 +920,25 @@
         <v>10000000</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="6">
         <v>100</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -955,25 +952,25 @@
         <v>20000000</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="6">
         <v>200</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -987,25 +984,25 @@
         <v>50000000</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="6">
         <v>500</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1019,25 +1016,25 @@
         <v>100000000</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="6">
         <v>1000</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1051,25 +1048,25 @@
         <v>500000000</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="6">
         <v>5000</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1083,25 +1080,25 @@
         <v>1000000000</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="6">
         <v>10000</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1115,25 +1112,25 @@
         <v>2000000000</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" s="6">
         <v>20000</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1153,19 +1150,19 @@
         <v>10</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1179,25 +1176,25 @@
         <v>5000000</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="6">
         <v>50</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1211,25 +1208,25 @@
         <v>10000000</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" s="6">
         <v>100</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1243,25 +1240,25 @@
         <v>20000000</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15" s="6">
         <v>200</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1275,25 +1272,25 @@
         <v>50000000</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" s="6">
         <v>500</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1307,25 +1304,25 @@
         <v>100000000</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" s="6">
         <v>1000</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1339,25 +1336,25 @@
         <v>500000000</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" s="6">
         <v>5000</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1371,25 +1368,25 @@
         <v>1000000000</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" s="6">
         <v>10000</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1403,25 +1400,25 @@
         <v>2000000000</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E20" s="6">
         <v>20000</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
